--- a/resultsEST0-99.xlsx
+++ b/resultsEST0-99.xlsx
@@ -461,10 +461,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3404</v>
+        <v>4420</v>
       </c>
       <c r="C2" t="n">
-        <v>2.711910963058472</v>
+        <v>2.767275333404541</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -475,10 +475,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9106</v>
+        <v>3027</v>
       </c>
       <c r="C3" t="n">
-        <v>8.873160123825073</v>
+        <v>1.62413215637207</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -489,13 +489,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>25156</v>
+        <v>11046</v>
       </c>
       <c r="C4" t="n">
-        <v>60.00311589241028</v>
+        <v>12.73072671890259</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -503,13 +503,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>23304</v>
+        <v>3088</v>
       </c>
       <c r="C5" t="n">
-        <v>60.00171184539795</v>
+        <v>1.765993118286133</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -517,10 +517,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5731</v>
+        <v>122</v>
       </c>
       <c r="C6" t="n">
-        <v>6.42055344581604</v>
+        <v>0.05011892318725586</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -531,10 +531,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5762</v>
+        <v>9659</v>
       </c>
       <c r="C7" t="n">
-        <v>6.048684120178223</v>
+        <v>11.12273788452148</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -545,10 +545,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>15846</v>
+        <v>3426</v>
       </c>
       <c r="C8" t="n">
-        <v>31.26523303985596</v>
+        <v>2.291496515274048</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -559,10 +559,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>18039</v>
+        <v>11418</v>
       </c>
       <c r="C9" t="n">
-        <v>34.41536021232605</v>
+        <v>14.83373045921326</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -573,10 +573,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>12842</v>
+        <v>6575</v>
       </c>
       <c r="C10" t="n">
-        <v>20.79960823059082</v>
+        <v>6.192307472229004</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -587,10 +587,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>11067</v>
+        <v>4727</v>
       </c>
       <c r="C11" t="n">
-        <v>16.83055710792542</v>
+        <v>4.142014503479004</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -601,10 +601,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>15671</v>
+        <v>1362</v>
       </c>
       <c r="C12" t="n">
-        <v>27.75233721733093</v>
+        <v>0.7508976459503174</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -615,10 +615,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>16768</v>
+        <v>1928</v>
       </c>
       <c r="C13" t="n">
-        <v>31.97991061210632</v>
+        <v>1.178695440292358</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -629,10 +629,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>7388</v>
+        <v>3210</v>
       </c>
       <c r="C14" t="n">
-        <v>5.149517059326172</v>
+        <v>1.52738618850708</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -643,10 +643,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>15796</v>
+        <v>2621</v>
       </c>
       <c r="C15" t="n">
-        <v>28.97446966171265</v>
+        <v>1.427172899246216</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -657,13 +657,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>24696</v>
+        <v>6833</v>
       </c>
       <c r="C16" t="n">
-        <v>60.0061571598053</v>
+        <v>6.65604043006897</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -671,10 +671,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>19187</v>
+        <v>11951</v>
       </c>
       <c r="C17" t="n">
-        <v>35.79631590843201</v>
+        <v>15.51112461090088</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
@@ -685,10 +685,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>11207</v>
+        <v>4889</v>
       </c>
       <c r="C18" t="n">
-        <v>16.81399869918823</v>
+        <v>3.699402570724487</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
@@ -699,10 +699,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>7049</v>
+        <v>10767</v>
       </c>
       <c r="C19" t="n">
-        <v>7.146681070327759</v>
+        <v>15.81407856941223</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
@@ -713,10 +713,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6941</v>
+        <v>13763</v>
       </c>
       <c r="C20" t="n">
-        <v>7.123866558074951</v>
+        <v>21.3364269733429</v>
       </c>
       <c r="D20" t="n">
         <v>1</v>
@@ -727,10 +727,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>11159</v>
+        <v>4023</v>
       </c>
       <c r="C21" t="n">
-        <v>16.13669514656067</v>
+        <v>2.77872109413147</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
@@ -741,10 +741,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>10192</v>
+        <v>8586</v>
       </c>
       <c r="C22" t="n">
-        <v>13.82917666435242</v>
+        <v>8.907962799072266</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
@@ -755,10 +755,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>11970</v>
+        <v>1815</v>
       </c>
       <c r="C23" t="n">
-        <v>19.07072019577026</v>
+        <v>1.02644157409668</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
@@ -769,13 +769,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>24526</v>
+        <v>16000</v>
       </c>
       <c r="C24" t="n">
-        <v>60.00417017936707</v>
+        <v>28.41391444206238</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -783,13 +783,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>11069</v>
+        <v>25507</v>
       </c>
       <c r="C25" t="n">
-        <v>15.68746757507324</v>
+        <v>60.00278210639954</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -797,10 +797,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>16130</v>
+        <v>4393</v>
       </c>
       <c r="C26" t="n">
-        <v>31.80591821670532</v>
+        <v>2.884665012359619</v>
       </c>
       <c r="D26" t="n">
         <v>1</v>
@@ -811,10 +811,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>17288</v>
+        <v>3584</v>
       </c>
       <c r="C27" t="n">
-        <v>33.03190755844116</v>
+        <v>2.055037260055542</v>
       </c>
       <c r="D27" t="n">
         <v>1</v>
@@ -825,13 +825,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>24203</v>
+        <v>21118</v>
       </c>
       <c r="C28" t="n">
-        <v>60.00238084793091</v>
+        <v>40.36164212226868</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -839,10 +839,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>5340</v>
+        <v>3183</v>
       </c>
       <c r="C29" t="n">
-        <v>2.59787392616272</v>
+        <v>1.670277833938599</v>
       </c>
       <c r="D29" t="n">
         <v>1</v>
@@ -853,10 +853,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>2808</v>
+        <v>6493</v>
       </c>
       <c r="C30" t="n">
-        <v>2.387099504470825</v>
+        <v>4.666834831237793</v>
       </c>
       <c r="D30" t="n">
         <v>1</v>
@@ -867,13 +867,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>27010</v>
+        <v>7765</v>
       </c>
       <c r="C31" t="n">
-        <v>60.00378012657166</v>
+        <v>6.401481628417969</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -881,10 +881,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>4958</v>
+        <v>3200</v>
       </c>
       <c r="C32" t="n">
-        <v>4.539587020874023</v>
+        <v>1.806713104248047</v>
       </c>
       <c r="D32" t="n">
         <v>1</v>
@@ -895,10 +895,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>6028</v>
+        <v>11730</v>
       </c>
       <c r="C33" t="n">
-        <v>6.220252275466919</v>
+        <v>13.1047625541687</v>
       </c>
       <c r="D33" t="n">
         <v>1</v>
@@ -909,10 +909,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3475</v>
+        <v>2491</v>
       </c>
       <c r="C34" t="n">
-        <v>3.277150392532349</v>
+        <v>1.294078826904297</v>
       </c>
       <c r="D34" t="n">
         <v>1</v>
@@ -923,10 +923,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3937</v>
+        <v>15405</v>
       </c>
       <c r="C35" t="n">
-        <v>3.300951957702637</v>
+        <v>24.74996066093445</v>
       </c>
       <c r="D35" t="n">
         <v>1</v>
@@ -937,10 +937,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>946</v>
+        <v>1901</v>
       </c>
       <c r="C36" t="n">
-        <v>0.6964428424835205</v>
+        <v>0.8401088714599609</v>
       </c>
       <c r="D36" t="n">
         <v>1</v>
@@ -951,10 +951,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>13852</v>
+        <v>14090</v>
       </c>
       <c r="C37" t="n">
-        <v>24.2314338684082</v>
+        <v>19.17671704292297</v>
       </c>
       <c r="D37" t="n">
         <v>1</v>
@@ -965,10 +965,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>16539</v>
+        <v>5426</v>
       </c>
       <c r="C38" t="n">
-        <v>31.17708897590637</v>
+        <v>4.124681949615479</v>
       </c>
       <c r="D38" t="n">
         <v>1</v>
@@ -979,10 +979,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>13030</v>
+        <v>7105</v>
       </c>
       <c r="C39" t="n">
-        <v>20.8541476726532</v>
+        <v>5.887673616409302</v>
       </c>
       <c r="D39" t="n">
         <v>1</v>
@@ -993,10 +993,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>22002</v>
+        <v>9311</v>
       </c>
       <c r="C40" t="n">
-        <v>47.32613635063171</v>
+        <v>10.53630137443542</v>
       </c>
       <c r="D40" t="n">
         <v>1</v>
@@ -1007,10 +1007,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4462</v>
+        <v>787</v>
       </c>
       <c r="C41" t="n">
-        <v>4.435176372528076</v>
+        <v>0.2993359565734863</v>
       </c>
       <c r="D41" t="n">
         <v>1</v>
@@ -1021,10 +1021,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>19051</v>
+        <v>5798</v>
       </c>
       <c r="C42" t="n">
-        <v>38.29770684242249</v>
+        <v>4.166477680206299</v>
       </c>
       <c r="D42" t="n">
         <v>1</v>
@@ -1035,10 +1035,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>8493</v>
+        <v>16174</v>
       </c>
       <c r="C43" t="n">
-        <v>10.45510506629944</v>
+        <v>28.6018385887146</v>
       </c>
       <c r="D43" t="n">
         <v>1</v>
@@ -1049,13 +1049,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>23312</v>
+        <v>10587</v>
       </c>
       <c r="C44" t="n">
-        <v>60.00355291366577</v>
+        <v>12.39374470710754</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1063,10 +1063,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>11441</v>
+        <v>3404</v>
       </c>
       <c r="C45" t="n">
-        <v>18.20971536636353</v>
+        <v>2.172279596328735</v>
       </c>
       <c r="D45" t="n">
         <v>1</v>
@@ -1077,10 +1077,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>18811</v>
+        <v>2469</v>
       </c>
       <c r="C46" t="n">
-        <v>41.04212594032288</v>
+        <v>1.071197509765625</v>
       </c>
       <c r="D46" t="n">
         <v>1</v>
@@ -1091,10 +1091,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>8150</v>
+        <v>10953</v>
       </c>
       <c r="C47" t="n">
-        <v>10.20506072044373</v>
+        <v>12.21662950515747</v>
       </c>
       <c r="D47" t="n">
         <v>1</v>
@@ -1105,10 +1105,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1531</v>
+        <v>4264</v>
       </c>
       <c r="C48" t="n">
-        <v>1.348414659500122</v>
+        <v>2.997926235198975</v>
       </c>
       <c r="D48" t="n">
         <v>1</v>
@@ -1119,10 +1119,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>7348</v>
+        <v>7987</v>
       </c>
       <c r="C49" t="n">
-        <v>9.413246631622314</v>
+        <v>8.435249090194702</v>
       </c>
       <c r="D49" t="n">
         <v>1</v>
@@ -1133,10 +1133,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>16057</v>
+        <v>8553</v>
       </c>
       <c r="C50" t="n">
-        <v>24.04407835006714</v>
+        <v>8.555781841278076</v>
       </c>
       <c r="D50" t="n">
         <v>1</v>
@@ -1147,10 +1147,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>621</v>
+        <v>1150</v>
       </c>
       <c r="C51" t="n">
-        <v>0.5825481414794922</v>
+        <v>0.5058367252349854</v>
       </c>
       <c r="D51" t="n">
         <v>1</v>
@@ -1161,13 +1161,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>24640</v>
+        <v>1718</v>
       </c>
       <c r="C52" t="n">
-        <v>60.0067834854126</v>
+        <v>0.8110020160675049</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -1175,10 +1175,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>14134</v>
+        <v>20764</v>
       </c>
       <c r="C53" t="n">
-        <v>25.05595850944519</v>
+        <v>44.52081203460693</v>
       </c>
       <c r="D53" t="n">
         <v>1</v>
@@ -1189,10 +1189,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>7408</v>
+        <v>9624</v>
       </c>
       <c r="C54" t="n">
-        <v>9.485783338546753</v>
+        <v>10.74039626121521</v>
       </c>
       <c r="D54" t="n">
         <v>1</v>
@@ -1203,10 +1203,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>641</v>
+        <v>2209</v>
       </c>
       <c r="C55" t="n">
-        <v>0.3474452495574951</v>
+        <v>0.9880876541137695</v>
       </c>
       <c r="D55" t="n">
         <v>1</v>
@@ -1217,10 +1217,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>9467</v>
+        <v>6919</v>
       </c>
       <c r="C56" t="n">
-        <v>11.14058041572571</v>
+        <v>5.808436393737793</v>
       </c>
       <c r="D56" t="n">
         <v>1</v>
@@ -1231,10 +1231,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>6511</v>
+        <v>1646</v>
       </c>
       <c r="C57" t="n">
-        <v>7.569629192352295</v>
+        <v>0.7998125553131104</v>
       </c>
       <c r="D57" t="n">
         <v>1</v>
@@ -1245,10 +1245,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>5520</v>
+        <v>1441</v>
       </c>
       <c r="C58" t="n">
-        <v>5.949196577072144</v>
+        <v>0.6127204895019531</v>
       </c>
       <c r="D58" t="n">
         <v>1</v>
@@ -1259,10 +1259,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>3197</v>
+        <v>2388</v>
       </c>
       <c r="C59" t="n">
-        <v>3.016882181167603</v>
+        <v>1.172754287719727</v>
       </c>
       <c r="D59" t="n">
         <v>1</v>
@@ -1273,10 +1273,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>5164</v>
+        <v>5613</v>
       </c>
       <c r="C60" t="n">
-        <v>5.069167375564575</v>
+        <v>3.470796346664429</v>
       </c>
       <c r="D60" t="n">
         <v>1</v>
@@ -1287,10 +1287,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>7070</v>
+        <v>21590</v>
       </c>
       <c r="C61" t="n">
-        <v>8.45927906036377</v>
+        <v>43.87055015563965</v>
       </c>
       <c r="D61" t="n">
         <v>1</v>
@@ -1301,10 +1301,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>6111</v>
+        <v>10808</v>
       </c>
       <c r="C62" t="n">
-        <v>6.855082511901855</v>
+        <v>12.96010136604309</v>
       </c>
       <c r="D62" t="n">
         <v>1</v>
@@ -1315,10 +1315,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>13818</v>
+        <v>3368</v>
       </c>
       <c r="C63" t="n">
-        <v>22.85157871246338</v>
+        <v>1.703220367431641</v>
       </c>
       <c r="D63" t="n">
         <v>1</v>
@@ -1329,13 +1329,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>25044</v>
+        <v>849</v>
       </c>
       <c r="C64" t="n">
-        <v>60.00036263465881</v>
+        <v>0.3763980865478516</v>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -1343,10 +1343,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>3836</v>
+        <v>3015</v>
       </c>
       <c r="C65" t="n">
-        <v>3.112979412078857</v>
+        <v>1.754358530044556</v>
       </c>
       <c r="D65" t="n">
         <v>1</v>
@@ -1357,10 +1357,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>22759</v>
+        <v>7089</v>
       </c>
       <c r="C66" t="n">
-        <v>51.08499479293823</v>
+        <v>6.641978740692139</v>
       </c>
       <c r="D66" t="n">
         <v>1</v>
@@ -1371,10 +1371,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>17083</v>
+        <v>8476</v>
       </c>
       <c r="C67" t="n">
-        <v>33.61347913742065</v>
+        <v>9.046791315078735</v>
       </c>
       <c r="D67" t="n">
         <v>1</v>
@@ -1385,10 +1385,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>3017</v>
+        <v>8530</v>
       </c>
       <c r="C68" t="n">
-        <v>2.289329290390015</v>
+        <v>7.968752145767212</v>
       </c>
       <c r="D68" t="n">
         <v>1</v>
@@ -1399,13 +1399,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>23935</v>
+        <v>6029</v>
       </c>
       <c r="C69" t="n">
-        <v>60.00084733963013</v>
+        <v>4.761534690856934</v>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -1413,10 +1413,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>10624</v>
+        <v>2194</v>
       </c>
       <c r="C70" t="n">
-        <v>13.4371657371521</v>
+        <v>0.6672215461730957</v>
       </c>
       <c r="D70" t="n">
         <v>1</v>
@@ -1427,10 +1427,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>14914</v>
+        <v>10483</v>
       </c>
       <c r="C71" t="n">
-        <v>21.40856671333313</v>
+        <v>8.42224645614624</v>
       </c>
       <c r="D71" t="n">
         <v>1</v>
@@ -1441,10 +1441,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>11135</v>
+        <v>2198</v>
       </c>
       <c r="C72" t="n">
-        <v>16.86708831787109</v>
+        <v>1.099310636520386</v>
       </c>
       <c r="D72" t="n">
         <v>1</v>
@@ -1455,10 +1455,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>2174</v>
+        <v>2304</v>
       </c>
       <c r="C73" t="n">
-        <v>1.813317537307739</v>
+        <v>0.8563399314880371</v>
       </c>
       <c r="D73" t="n">
         <v>1</v>
@@ -1469,10 +1469,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>3384</v>
+        <v>4371</v>
       </c>
       <c r="C74" t="n">
-        <v>3.224646806716919</v>
+        <v>2.850404024124146</v>
       </c>
       <c r="D74" t="n">
         <v>1</v>
@@ -1483,10 +1483,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>6495</v>
+        <v>9433</v>
       </c>
       <c r="C75" t="n">
-        <v>7.179226875305176</v>
+        <v>10.06337308883667</v>
       </c>
       <c r="D75" t="n">
         <v>1</v>
@@ -1497,10 +1497,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4917</v>
+        <v>6886</v>
       </c>
       <c r="C76" t="n">
-        <v>5.334600687026978</v>
+        <v>5.758676767349243</v>
       </c>
       <c r="D76" t="n">
         <v>1</v>
@@ -1511,10 +1511,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>6799</v>
+        <v>9631</v>
       </c>
       <c r="C77" t="n">
-        <v>7.954541683197021</v>
+        <v>8.981184482574463</v>
       </c>
       <c r="D77" t="n">
         <v>1</v>
@@ -1525,10 +1525,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>20523</v>
+        <v>9986</v>
       </c>
       <c r="C78" t="n">
-        <v>44.8728187084198</v>
+        <v>10.87247657775879</v>
       </c>
       <c r="D78" t="n">
         <v>1</v>
@@ -1539,10 +1539,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>3994</v>
+        <v>1861</v>
       </c>
       <c r="C79" t="n">
-        <v>3.885188579559326</v>
+        <v>0.8603420257568359</v>
       </c>
       <c r="D79" t="n">
         <v>1</v>
@@ -1553,10 +1553,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>651</v>
+        <v>3642</v>
       </c>
       <c r="C80" t="n">
-        <v>0.4625928401947021</v>
+        <v>2.224096298217773</v>
       </c>
       <c r="D80" t="n">
         <v>1</v>
@@ -1567,13 +1567,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>25027</v>
+        <v>4908</v>
       </c>
       <c r="C81" t="n">
-        <v>60.00127696990967</v>
+        <v>3.357852935791016</v>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -1581,10 +1581,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>5083</v>
+        <v>13979</v>
       </c>
       <c r="C82" t="n">
-        <v>3.609633684158325</v>
+        <v>17.2071430683136</v>
       </c>
       <c r="D82" t="n">
         <v>1</v>
@@ -1595,10 +1595,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4676</v>
+        <v>4865</v>
       </c>
       <c r="C83" t="n">
-        <v>4.511187553405762</v>
+        <v>3.259887218475342</v>
       </c>
       <c r="D83" t="n">
         <v>1</v>
@@ -1609,10 +1609,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>18053</v>
+        <v>1923</v>
       </c>
       <c r="C84" t="n">
-        <v>35.58835458755493</v>
+        <v>0.9256594181060791</v>
       </c>
       <c r="D84" t="n">
         <v>1</v>
@@ -1623,10 +1623,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>11420</v>
+        <v>5418</v>
       </c>
       <c r="C85" t="n">
-        <v>13.386070728302</v>
+        <v>3.977680683135986</v>
       </c>
       <c r="D85" t="n">
         <v>1</v>
@@ -1637,10 +1637,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>10025</v>
+        <v>1822</v>
       </c>
       <c r="C86" t="n">
-        <v>13.86349773406982</v>
+        <v>0.8170063495635986</v>
       </c>
       <c r="D86" t="n">
         <v>1</v>
@@ -1651,10 +1651,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>13357</v>
+        <v>16770</v>
       </c>
       <c r="C87" t="n">
-        <v>17.18478155136108</v>
+        <v>25.4084038734436</v>
       </c>
       <c r="D87" t="n">
         <v>1</v>
@@ -1665,10 +1665,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>9492</v>
+        <v>2454</v>
       </c>
       <c r="C88" t="n">
-        <v>12.36226916313171</v>
+        <v>1.091157913208008</v>
       </c>
       <c r="D88" t="n">
         <v>1</v>
@@ -1679,10 +1679,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>5756</v>
+        <v>12218</v>
       </c>
       <c r="C89" t="n">
-        <v>6.249916076660156</v>
+        <v>14.84336280822754</v>
       </c>
       <c r="D89" t="n">
         <v>1</v>
@@ -1693,10 +1693,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>23348</v>
+        <v>8483</v>
       </c>
       <c r="C90" t="n">
-        <v>52.39516639709473</v>
+        <v>7.824760437011719</v>
       </c>
       <c r="D90" t="n">
         <v>1</v>
@@ -1707,13 +1707,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>24153</v>
+        <v>7254</v>
       </c>
       <c r="C91" t="n">
-        <v>60.00390625</v>
+        <v>6.483772993087769</v>
       </c>
       <c r="D91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -1721,10 +1721,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>21625</v>
+        <v>14943</v>
       </c>
       <c r="C92" t="n">
-        <v>52.11936616897583</v>
+        <v>20.92472052574158</v>
       </c>
       <c r="D92" t="n">
         <v>1</v>
@@ -1735,10 +1735,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>1763</v>
+        <v>1851</v>
       </c>
       <c r="C93" t="n">
-        <v>1.495483160018921</v>
+        <v>0.8043766021728516</v>
       </c>
       <c r="D93" t="n">
         <v>1</v>
@@ -1749,10 +1749,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4005</v>
+        <v>8277</v>
       </c>
       <c r="C94" t="n">
-        <v>4.192111253738403</v>
+        <v>7.748855829238892</v>
       </c>
       <c r="D94" t="n">
         <v>1</v>
@@ -1763,10 +1763,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>8671</v>
+        <v>4441</v>
       </c>
       <c r="C95" t="n">
-        <v>12.06906867027283</v>
+        <v>2.877262353897095</v>
       </c>
       <c r="D95" t="n">
         <v>1</v>
@@ -1777,10 +1777,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>17642</v>
+        <v>3901</v>
       </c>
       <c r="C96" t="n">
-        <v>34.88786196708679</v>
+        <v>2.430032253265381</v>
       </c>
       <c r="D96" t="n">
         <v>1</v>
@@ -1791,10 +1791,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>816</v>
+        <v>1884</v>
       </c>
       <c r="C97" t="n">
-        <v>0.6029608249664307</v>
+        <v>0.8806445598602295</v>
       </c>
       <c r="D97" t="n">
         <v>1</v>
@@ -1805,10 +1805,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>2732</v>
+        <v>2565</v>
       </c>
       <c r="C98" t="n">
-        <v>1.726191997528076</v>
+        <v>1.303118944168091</v>
       </c>
       <c r="D98" t="n">
         <v>1</v>
@@ -1819,10 +1819,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>14529</v>
+        <v>1558</v>
       </c>
       <c r="C99" t="n">
-        <v>24.44009304046631</v>
+        <v>0.606403112411499</v>
       </c>
       <c r="D99" t="n">
         <v>1</v>
@@ -1833,10 +1833,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>6263</v>
+        <v>9021</v>
       </c>
       <c r="C100" t="n">
-        <v>4.06429386138916</v>
+        <v>7.516368865966797</v>
       </c>
       <c r="D100" t="n">
         <v>1</v>
@@ -1847,10 +1847,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>15113</v>
+        <v>134</v>
       </c>
       <c r="C101" t="n">
-        <v>23.74227833747864</v>
+        <v>0.03957748413085938</v>
       </c>
       <c r="D101" t="n">
         <v>1</v>
@@ -1894,13 +1894,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10408</v>
+        <v>5163</v>
       </c>
       <c r="B2" t="n">
-        <v>13.63317120075226</v>
+        <v>3.838541626930237</v>
       </c>
       <c r="C2" t="n">
-        <v>0.88</v>
+        <v>0.99</v>
       </c>
     </row>
   </sheetData>
